--- a/notebooks/results_notebook/Logiciels_Analyse_Classement.xlsx
+++ b/notebooks/results_notebook/Logiciels_Analyse_Classement.xlsx
@@ -721,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>13</v>
@@ -762,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.142857142857145</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>10</v>
@@ -873,10 +873,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.14285714285714</v>
+        <v>7</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>13</v>
